--- a/data/trans_bre/CoPsoQ_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CoPsoQ_R-Estudios-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>6.258889471247173</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-21.98244069587966</v>
+        <v>-21.98244069587967</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>0.2644622955780321</v>
@@ -627,7 +627,7 @@
         <v>0.2673171327475207</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>-0.4523766306985455</v>
+        <v>-0.4523766306985457</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.901499413958804</v>
+        <v>-3.024775425260668</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.791996280457578</v>
+        <v>-6.01462436380547</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-47.36805475511569</v>
+        <v>-47.15103908713905</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.09964104601193571</v>
+        <v>-0.08366070075553672</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2608465923848524</v>
+        <v>-0.2095514886699306</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.7714859534217753</v>
+        <v>-0.787749443166726</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>19.09073992384382</v>
+        <v>18.43900208875084</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>19.03878614945102</v>
+        <v>19.74562548685368</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9944953210990303</v>
+        <v>2.4831827040633</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.7478115935231927</v>
+        <v>0.7452228496148338</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.04774125080338</v>
+        <v>1.05808664351761</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08241439572225906</v>
+        <v>0.1037916003044773</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>-0.5275742202278361</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>-4.524067406529775</v>
+        <v>-4.524067406529792</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.0637618275177399</v>
@@ -709,7 +709,7 @@
         <v>-0.02364759417710315</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.1495040470269558</v>
+        <v>-0.1495040470269563</v>
       </c>
     </row>
     <row r="8">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-6.68134385458537</v>
+        <v>-5.779554941876826</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-4.867280058588597</v>
+        <v>-4.727381777665808</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-12.9581137700036</v>
+        <v>-12.37934860345271</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2637953951964147</v>
+        <v>-0.2270270582954159</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2038066530370993</v>
+        <v>-0.1962159654168503</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3601672010115622</v>
+        <v>-0.3610933199367665</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.255513602927335</v>
+        <v>3.053499452532481</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.865946553670505</v>
+        <v>3.787043702237224</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.173743174113469</v>
+        <v>3.173667332774616</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1489596324609457</v>
+        <v>0.1369513296191429</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1881021870136178</v>
+        <v>0.1877155993738908</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1320356549545342</v>
+        <v>0.1303159947033986</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>1.538709626446028</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6.19020116604993</v>
+        <v>6.190201166049919</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0.2271860511859556</v>
@@ -791,7 +791,7 @@
         <v>0.06812263712818555</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1852921399428414</v>
+        <v>0.1852921399428411</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.151071129587201</v>
+        <v>-3.275984723577773</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.419377456863083</v>
+        <v>-5.127341932470366</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.915856213993448</v>
+        <v>-6.488133254659083</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.1849141072374279</v>
+        <v>-0.1850433416333818</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2120281009912377</v>
+        <v>-0.2089574761231914</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1693395944211739</v>
+        <v>-0.164069264776134</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.97533074319176</v>
+        <v>11.02336951074335</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.173633338230001</v>
+        <v>8.292145435685352</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>18.87817409025513</v>
+        <v>18.08526903107427</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.8522900022884301</v>
+        <v>0.8855510019973587</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4281641520335335</v>
+        <v>0.4442079817624087</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.738686237693734</v>
+        <v>0.665963912074676</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>0.5272970263601823</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>-2.873789413438005</v>
+        <v>-2.87378941343801</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.04558214454207669</v>
@@ -873,7 +873,7 @@
         <v>0.0234472284645928</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.08768749296081398</v>
+        <v>-0.08768749296081414</v>
       </c>
     </row>
     <row r="14">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.336312926585075</v>
+        <v>-2.500498804331464</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-3.323123701985981</v>
+        <v>-2.845880608939422</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-9.435495441553105</v>
+        <v>-9.654726187048212</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.09600264896010988</v>
+        <v>-0.1029868060586417</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1349524942743461</v>
+        <v>-0.1203796333434903</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2599728125627581</v>
+        <v>-0.2659207458928186</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.514796777279932</v>
+        <v>4.61421770848214</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.853240382876995</v>
+        <v>4.130045016380814</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.82155605323277</v>
+        <v>3.502944027740919</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.21489080879062</v>
+        <v>0.2188539833597884</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1866637869101624</v>
+        <v>0.1931396824986914</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1282713116791387</v>
+        <v>0.1179390826073953</v>
       </c>
     </row>
     <row r="16">
